--- a/Trabalho Etapa II (EXPERIMENTAL)/Ensaios_Sistema/medicoes.xlsx
+++ b/Trabalho Etapa II (EXPERIMENTAL)/Ensaios_Sistema/medicoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebrain\Desktop\Controle-Digital-Etapa-Experimental\Trabalho Etapa II (EXPERIMENTAL)\Ensaios_Sistema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B628EB74-3A09-4BE4-A63D-A72E05920268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038991AE-661F-4AC2-B51C-323EB2E15BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,9 +1039,9 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:N1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Trabalho Etapa II (EXPERIMENTAL)/Ensaios_Sistema/medicoes.xlsx
+++ b/Trabalho Etapa II (EXPERIMENTAL)/Ensaios_Sistema/medicoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thebrain\Desktop\Controle-Digital-Etapa-Experimental\Trabalho Etapa II (EXPERIMENTAL)\Ensaios_Sistema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038991AE-661F-4AC2-B51C-323EB2E15BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF124D0-9BDC-488F-81F9-127E07098245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +73,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,11 +115,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -102,8 +145,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="20% - Ênfase1" xfId="1" builtinId="30"/>
+    <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
+    <cellStyle name="60% - Ênfase1" xfId="3" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1372,7 +1426,7 @@
   <dimension ref="A1:N1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,19 +1452,19 @@
         <v>7</v>
       </c>
       <c r="H1" s="2"/>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="4">
         <v>1.75</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="4">
         <v>1.95</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="4">
         <v>2.15</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="4">
         <v>2.25</v>
       </c>
     </row>
@@ -1439,22 +1493,22 @@
       <c r="H2" s="1">
         <v>6438</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="6">
         <f>MEDIAN(B2:B1000)</f>
         <v>2668</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="6">
         <f>MEDIAN(D2:D1000)</f>
         <v>3886</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="6">
         <f>MEDIAN(F2:F1000)</f>
         <v>5713</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="6">
         <f>MEDIAN(H2:H1000)</f>
         <v>6148</v>
       </c>
@@ -1484,22 +1538,22 @@
       <c r="H3" s="1">
         <v>6438</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="6">
         <f>AVEDEV(B3:B1001)</f>
         <v>204.27980533085619</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="6">
         <f>AVEDEV(D3:D1001)</f>
         <v>272.02553905256661</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="6">
         <f>AVEDEV(F3:F1001)</f>
         <v>220.16295574854124</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="6">
         <f>AVEDEV(H3:H1001)</f>
         <v>438.75991306622058</v>
       </c>
